--- a/data/pca/factorExposure/factorExposure_2016-08-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-08-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.008848397172655146</v>
+        <v>-0.01317816813487996</v>
       </c>
       <c r="C2">
-        <v>0.05394725250438373</v>
+        <v>0.0437471351874277</v>
       </c>
       <c r="D2">
-        <v>0.03692458429493835</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06561211960890215</v>
+      </c>
+      <c r="E2">
+        <v>0.05108137132291662</v>
+      </c>
+      <c r="F2">
+        <v>0.08109864752207953</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>0.062996554805945</v>
+        <v>-0.03076089622021087</v>
       </c>
       <c r="C3">
-        <v>0.09024108389953502</v>
+        <v>0.08111060320066163</v>
       </c>
       <c r="D3">
-        <v>0.0802359628559387</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09215183904364102</v>
+      </c>
+      <c r="E3">
+        <v>0.05931791682981274</v>
+      </c>
+      <c r="F3">
+        <v>0.01253225353478094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.06343823412717185</v>
+        <v>-0.0575174736814637</v>
       </c>
       <c r="C4">
-        <v>0.05962189159576402</v>
+        <v>0.06616837242539904</v>
       </c>
       <c r="D4">
-        <v>0.02422737701568193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05939894876847812</v>
+      </c>
+      <c r="E4">
+        <v>0.04964379674111349</v>
+      </c>
+      <c r="F4">
+        <v>0.08858342976394572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03996540460602526</v>
+        <v>-0.03508628542600459</v>
       </c>
       <c r="C6">
-        <v>0.0331903364551397</v>
+        <v>0.03192069900162538</v>
       </c>
       <c r="D6">
-        <v>0.03063521424873171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06879960643023529</v>
+      </c>
+      <c r="E6">
+        <v>0.0575743990133355</v>
+      </c>
+      <c r="F6">
+        <v>0.07104352990999815</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.02078370259025492</v>
+        <v>-0.01926451501939195</v>
       </c>
       <c r="C7">
-        <v>0.04030851274491747</v>
+        <v>0.0380095100853622</v>
       </c>
       <c r="D7">
-        <v>-0.005078210327650049</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03738538261456335</v>
+      </c>
+      <c r="E7">
+        <v>0.03133211309647804</v>
+      </c>
+      <c r="F7">
+        <v>0.10815181434803</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.0001714013005341566</v>
+        <v>-0.003433401694426549</v>
       </c>
       <c r="C8">
-        <v>0.02467686828050356</v>
+        <v>0.02822655901248175</v>
       </c>
       <c r="D8">
-        <v>0.03312148513018696</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03639653245226822</v>
+      </c>
+      <c r="E8">
+        <v>0.04116797710251446</v>
+      </c>
+      <c r="F8">
+        <v>0.05027601272742054</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.03437227039930506</v>
+        <v>-0.03621839939010761</v>
       </c>
       <c r="C9">
-        <v>0.04433595690352195</v>
+        <v>0.05266930015460195</v>
       </c>
       <c r="D9">
-        <v>0.01321918327871386</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04508937167431586</v>
+      </c>
+      <c r="E9">
+        <v>0.04226107096561545</v>
+      </c>
+      <c r="F9">
+        <v>0.09195219157692684</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.06760278567470529</v>
+        <v>-0.09994080141700459</v>
       </c>
       <c r="C10">
-        <v>-0.1943277879360723</v>
+        <v>-0.1941070350629712</v>
       </c>
       <c r="D10">
-        <v>0.005299614644146316</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0006569313574290553</v>
+      </c>
+      <c r="E10">
+        <v>0.04673437919305712</v>
+      </c>
+      <c r="F10">
+        <v>0.04070833090652488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.04003288722427886</v>
+        <v>-0.03607591865241363</v>
       </c>
       <c r="C11">
-        <v>0.0551863883431879</v>
+        <v>0.05148323280732262</v>
       </c>
       <c r="D11">
-        <v>0.007432805315866892</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03414701676348189</v>
+      </c>
+      <c r="E11">
+        <v>0.005328353405010912</v>
+      </c>
+      <c r="F11">
+        <v>0.0663831214449508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.03627644613894537</v>
+        <v>-0.03676714920804174</v>
       </c>
       <c r="C12">
-        <v>0.04643464697318662</v>
+        <v>0.04765499179853543</v>
       </c>
       <c r="D12">
-        <v>0.001477186998568194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02555772115825036</v>
+      </c>
+      <c r="E12">
+        <v>0.01423526436444831</v>
+      </c>
+      <c r="F12">
+        <v>0.06971703594176552</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.01465471243356808</v>
+        <v>-0.01234216308385746</v>
       </c>
       <c r="C13">
-        <v>0.04276102379882317</v>
+        <v>0.04181200739495984</v>
       </c>
       <c r="D13">
-        <v>0.01765737923222305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06250176334716237</v>
+      </c>
+      <c r="E13">
+        <v>0.06115856409607204</v>
+      </c>
+      <c r="F13">
+        <v>0.1135942062363874</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.007491455266076304</v>
+        <v>-0.005046465026952108</v>
       </c>
       <c r="C14">
-        <v>0.03419389188845055</v>
+        <v>0.03145295753683804</v>
       </c>
       <c r="D14">
-        <v>-0.01494748599800706</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02712977990351659</v>
+      </c>
+      <c r="E14">
+        <v>0.02676384641983861</v>
+      </c>
+      <c r="F14">
+        <v>0.09736534167831007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001214760227946737</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.003254764300857759</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.004575254686431919</v>
+      </c>
+      <c r="E15">
+        <v>-0.00021399176220395</v>
+      </c>
+      <c r="F15">
+        <v>0.002868535735608174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.0370753573993902</v>
+        <v>-0.03352056942505974</v>
       </c>
       <c r="C16">
-        <v>0.04299872285813928</v>
+        <v>0.04573323931503271</v>
       </c>
       <c r="D16">
-        <v>0.006388205214297141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02852101895776161</v>
+      </c>
+      <c r="E16">
+        <v>0.01953499100644498</v>
+      </c>
+      <c r="F16">
+        <v>0.0704796012278032</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>0.02428313483502179</v>
+        <v>-0.01627816048180982</v>
       </c>
       <c r="C19">
-        <v>0.06162651965084779</v>
+        <v>0.05049207960258825</v>
       </c>
       <c r="D19">
-        <v>0.07100858013069646</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.0962804630287897</v>
+      </c>
+      <c r="E19">
+        <v>0.079783766581611</v>
+      </c>
+      <c r="F19">
+        <v>0.09152973539824692</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01556217915284194</v>
+        <v>-0.0132701769397445</v>
       </c>
       <c r="C20">
-        <v>0.0445942841331551</v>
+        <v>0.04095726955805512</v>
       </c>
       <c r="D20">
-        <v>0.01840752835874456</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04088633648772066</v>
+      </c>
+      <c r="E20">
+        <v>0.0558175255731347</v>
+      </c>
+      <c r="F20">
+        <v>0.08923624139133134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.008556545542342356</v>
+        <v>-0.008353027464432441</v>
       </c>
       <c r="C21">
-        <v>0.04871484300054837</v>
+        <v>0.04479588093508911</v>
       </c>
       <c r="D21">
-        <v>0.0378757074094453</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.07044195791847803</v>
+      </c>
+      <c r="E21">
+        <v>0.07320195226731423</v>
+      </c>
+      <c r="F21">
+        <v>0.1339222088172413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001656838843708529</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02294790698259809</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03563177227300592</v>
+      </c>
+      <c r="E22">
+        <v>0.01838108185048121</v>
+      </c>
+      <c r="F22">
+        <v>0.02198868865151963</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001723773668838668</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02307197133847349</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03532457652241273</v>
+      </c>
+      <c r="E23">
+        <v>0.01866964977710342</v>
+      </c>
+      <c r="F23">
+        <v>0.02186653196324262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.03195917849222606</v>
+        <v>-0.03305445372613774</v>
       </c>
       <c r="C24">
-        <v>0.04879026031409539</v>
+        <v>0.05351791590065373</v>
       </c>
       <c r="D24">
-        <v>0.003837918483494608</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02705805202846064</v>
+      </c>
+      <c r="E24">
+        <v>0.01706793064572878</v>
+      </c>
+      <c r="F24">
+        <v>0.07900855293968219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.04580418821971827</v>
+        <v>-0.04300097565129458</v>
       </c>
       <c r="C25">
-        <v>0.05897426929642655</v>
+        <v>0.05738546828459178</v>
       </c>
       <c r="D25">
-        <v>-0.007343612430927069</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02465609038449772</v>
+      </c>
+      <c r="E25">
+        <v>0.01107489271415481</v>
+      </c>
+      <c r="F25">
+        <v>0.0806365299890856</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.01460722192983638</v>
+        <v>-0.01386737557548596</v>
       </c>
       <c r="C26">
-        <v>0.01669803221984353</v>
+        <v>0.01645002811087594</v>
       </c>
       <c r="D26">
-        <v>0.001590020394323126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02676758644878109</v>
+      </c>
+      <c r="E26">
+        <v>0.02895198013766187</v>
+      </c>
+      <c r="F26">
+        <v>0.07460036800138831</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.0806083491007161</v>
+        <v>-0.1346149764069278</v>
       </c>
       <c r="C28">
-        <v>-0.2289166577653448</v>
+        <v>-0.243677514265298</v>
       </c>
       <c r="D28">
-        <v>6.056561794783963e-05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01562588129644367</v>
+      </c>
+      <c r="E28">
+        <v>0.04777258398709882</v>
+      </c>
+      <c r="F28">
+        <v>0.05667682077596298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.009678231677168109</v>
+        <v>-0.005958932925694529</v>
       </c>
       <c r="C29">
-        <v>0.02713234981524744</v>
+        <v>0.02706766589469924</v>
       </c>
       <c r="D29">
-        <v>-0.01633867065590741</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02190302201509291</v>
+      </c>
+      <c r="E29">
+        <v>0.02864696607851977</v>
+      </c>
+      <c r="F29">
+        <v>0.08938688432302599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05384095502780181</v>
+        <v>-0.04183343174264469</v>
       </c>
       <c r="C30">
-        <v>0.05766949931323714</v>
+        <v>0.0647582630744693</v>
       </c>
       <c r="D30">
-        <v>0.05458676896930049</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1082237274428318</v>
+      </c>
+      <c r="E30">
+        <v>0.03996793753655502</v>
+      </c>
+      <c r="F30">
+        <v>0.1046545498549028</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05222402175847005</v>
+        <v>-0.05477654443053045</v>
       </c>
       <c r="C31">
-        <v>0.03156985279204192</v>
+        <v>0.05398860604044503</v>
       </c>
       <c r="D31">
-        <v>-0.01760753537187388</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.00901997185368298</v>
+      </c>
+      <c r="E31">
+        <v>0.04917689743048324</v>
+      </c>
+      <c r="F31">
+        <v>0.08287447979082996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.009724545380959329</v>
+        <v>-0.004610284992579696</v>
       </c>
       <c r="C32">
-        <v>0.04335730724758625</v>
+        <v>0.03347630785117441</v>
       </c>
       <c r="D32">
-        <v>0.0277440614504848</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05035504600862078</v>
+      </c>
+      <c r="E32">
+        <v>0.02287638249948185</v>
+      </c>
+      <c r="F32">
+        <v>0.07424079283007068</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02832802437303964</v>
+        <v>-0.02431997352568474</v>
       </c>
       <c r="C33">
-        <v>0.05949265818449798</v>
+        <v>0.05467238693106689</v>
       </c>
       <c r="D33">
-        <v>0.03450616854588668</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08073905068719998</v>
+      </c>
+      <c r="E33">
+        <v>0.05017941735099533</v>
+      </c>
+      <c r="F33">
+        <v>0.1296494563879842</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.04569352087693321</v>
+        <v>-0.04074413243286255</v>
       </c>
       <c r="C34">
-        <v>0.06060912535863305</v>
+        <v>0.06404371477709742</v>
       </c>
       <c r="D34">
-        <v>-0.002707992604482144</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03443111279122819</v>
+      </c>
+      <c r="E34">
+        <v>-0.007697868144966176</v>
+      </c>
+      <c r="F34">
+        <v>0.07690444744472032</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01015159679777676</v>
+        <v>-0.01283007013832221</v>
       </c>
       <c r="C36">
-        <v>0.01649727875767631</v>
+        <v>0.01252791065480187</v>
       </c>
       <c r="D36">
-        <v>0.001308043701922603</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02802808764956901</v>
+      </c>
+      <c r="E36">
+        <v>0.03437330928815489</v>
+      </c>
+      <c r="F36">
+        <v>0.08210423408338907</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.02951279750760465</v>
+        <v>-0.02431607541033753</v>
       </c>
       <c r="C38">
-        <v>0.02770719011660218</v>
+        <v>0.02468532000362751</v>
       </c>
       <c r="D38">
-        <v>-0.00285773039396849</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02644523382931383</v>
+      </c>
+      <c r="E38">
+        <v>0.03285526657353153</v>
+      </c>
+      <c r="F38">
+        <v>0.06918961119716019</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04300679259188391</v>
+        <v>-0.03915596641499178</v>
       </c>
       <c r="C39">
-        <v>0.07090216350852145</v>
+        <v>0.06806400807011496</v>
       </c>
       <c r="D39">
-        <v>0.02037837539923322</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05321039276580961</v>
+      </c>
+      <c r="E39">
+        <v>0.01853980271552562</v>
+      </c>
+      <c r="F39">
+        <v>0.09141159363650223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01541075109135624</v>
+        <v>-0.0156730945229966</v>
       </c>
       <c r="C40">
-        <v>0.03497323406801478</v>
+        <v>0.03996365528306128</v>
       </c>
       <c r="D40">
-        <v>0.03215768031805668</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03930272926268166</v>
+      </c>
+      <c r="E40">
+        <v>0.06916447303704185</v>
+      </c>
+      <c r="F40">
+        <v>0.08790747581571449</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.00906652846247882</v>
+        <v>-0.01743863224010364</v>
       </c>
       <c r="C41">
-        <v>0.009103369028853238</v>
+        <v>0.006658766253157688</v>
       </c>
       <c r="D41">
-        <v>-0.002919345263583195</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01653061686671161</v>
+      </c>
+      <c r="E41">
+        <v>0.0384371665358686</v>
+      </c>
+      <c r="F41">
+        <v>0.07097856108141132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>0.001030313231172374</v>
+        <v>-0.0006897762769707076</v>
       </c>
       <c r="C42">
-        <v>0.006336166610513718</v>
+        <v>0.003443227535638939</v>
       </c>
       <c r="D42">
-        <v>0.006112063835625756</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.0006175617509630107</v>
+      </c>
+      <c r="E42">
+        <v>0.005714565116781189</v>
+      </c>
+      <c r="F42">
+        <v>-0.006081894872820401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.03159800495100577</v>
+        <v>-0.02865244808126205</v>
       </c>
       <c r="C43">
-        <v>0.02389875987520845</v>
+        <v>0.02164554667761516</v>
       </c>
       <c r="D43">
-        <v>0.01084102421041742</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03991119180697615</v>
+      </c>
+      <c r="E43">
+        <v>0.04381676334306699</v>
+      </c>
+      <c r="F43">
+        <v>0.08537048898604573</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.01993538597371382</v>
+        <v>-0.01379868200869664</v>
       </c>
       <c r="C44">
-        <v>0.0565841159246273</v>
+        <v>0.05282415431250169</v>
       </c>
       <c r="D44">
-        <v>0.01378096230801623</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04015209956984434</v>
+      </c>
+      <c r="E44">
+        <v>0.0559262830196705</v>
+      </c>
+      <c r="F44">
+        <v>0.08975579368173257</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.002699954054943784</v>
+        <v>-0.007234199657343678</v>
       </c>
       <c r="C46">
-        <v>0.02444975252128342</v>
+        <v>0.02549872155114212</v>
       </c>
       <c r="D46">
-        <v>-0.02096450435960761</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01314850282064735</v>
+      </c>
+      <c r="E46">
+        <v>0.03430627495331586</v>
+      </c>
+      <c r="F46">
+        <v>0.103538936019082</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.08151398118062099</v>
+        <v>-0.08687856424655499</v>
       </c>
       <c r="C47">
-        <v>0.06734997209753481</v>
+        <v>0.07957442517640874</v>
       </c>
       <c r="D47">
-        <v>-0.01413112904888728</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01638767703251844</v>
+      </c>
+      <c r="E47">
+        <v>0.05497148594439021</v>
+      </c>
+      <c r="F47">
+        <v>0.08001523932208537</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01832012722050621</v>
+        <v>-0.01557241954050758</v>
       </c>
       <c r="C48">
-        <v>0.013263998914442</v>
+        <v>0.01783738464512366</v>
       </c>
       <c r="D48">
-        <v>-0.009256079230144709</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01802365705447828</v>
+      </c>
+      <c r="E48">
+        <v>0.04538100080947678</v>
+      </c>
+      <c r="F48">
+        <v>0.09654316592162031</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.08567580746344806</v>
+        <v>-0.0711825118101945</v>
       </c>
       <c r="C50">
-        <v>0.06643845947553172</v>
+        <v>0.07091610764669311</v>
       </c>
       <c r="D50">
-        <v>-0.02579785586303149</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.005497875622809268</v>
+      </c>
+      <c r="E50">
+        <v>0.05155160452864901</v>
+      </c>
+      <c r="F50">
+        <v>0.07370105014013816</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.01322135512632274</v>
+        <v>-0.01009113422760311</v>
       </c>
       <c r="C51">
-        <v>0.05057300594827553</v>
+        <v>0.03458695001890429</v>
       </c>
       <c r="D51">
-        <v>0.01248933688447434</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04843251620810466</v>
+      </c>
+      <c r="E51">
+        <v>0.02070292183465283</v>
+      </c>
+      <c r="F51">
+        <v>0.08367721933224086</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.08392439120104236</v>
+        <v>-0.09322651758860188</v>
       </c>
       <c r="C53">
-        <v>0.06742199848373948</v>
+        <v>0.08659093017947805</v>
       </c>
       <c r="D53">
-        <v>-0.03236348613293014</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03855281043572687</v>
+      </c>
+      <c r="E53">
+        <v>0.05236684046978984</v>
+      </c>
+      <c r="F53">
+        <v>0.0905408854379734</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.03353736465867551</v>
+        <v>-0.02791460835483528</v>
       </c>
       <c r="C54">
-        <v>0.02177804841176115</v>
+        <v>0.02691333897795188</v>
       </c>
       <c r="D54">
-        <v>-2.74842754853879e-05</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03197081368264262</v>
+      </c>
+      <c r="E54">
+        <v>0.0408333834137972</v>
+      </c>
+      <c r="F54">
+        <v>0.0966242512670098</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.07534385640603961</v>
+        <v>-0.08414870355777274</v>
       </c>
       <c r="C55">
-        <v>0.05937932480296948</v>
+        <v>0.07096041307160238</v>
       </c>
       <c r="D55">
-        <v>-0.03514787930713757</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04594818463356378</v>
+      </c>
+      <c r="E55">
+        <v>0.04353770088610353</v>
+      </c>
+      <c r="F55">
+        <v>0.06540596360652272</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1505944399770084</v>
+        <v>-0.145512800891155</v>
       </c>
       <c r="C56">
-        <v>0.08585023060649083</v>
+        <v>0.1053374118809937</v>
       </c>
       <c r="D56">
-        <v>-0.04005764579170385</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04893702132863034</v>
+      </c>
+      <c r="E56">
+        <v>0.0472716463124656</v>
+      </c>
+      <c r="F56">
+        <v>0.05111138401797267</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>0.0007654660261250134</v>
+        <v>1.995839849828859e-05</v>
       </c>
       <c r="C57">
-        <v>0.003661606668343137</v>
+        <v>0.002059784971482414</v>
       </c>
       <c r="D57">
-        <v>0.01854907639990987</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01607294232178394</v>
+      </c>
+      <c r="E57">
+        <v>0.007535793461925214</v>
+      </c>
+      <c r="F57">
+        <v>0.01123529241725257</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.07217118188256587</v>
+        <v>-0.02798718626161625</v>
       </c>
       <c r="C58">
-        <v>0.01937579496781093</v>
+        <v>0.0406244343017729</v>
       </c>
       <c r="D58">
-        <v>0.9072693909290616</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4883116453996351</v>
+      </c>
+      <c r="E58">
+        <v>0.6911118547719051</v>
+      </c>
+      <c r="F58">
+        <v>-0.4530093770654822</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1307465323977599</v>
+        <v>-0.146305878681762</v>
       </c>
       <c r="C59">
-        <v>-0.2063236641821722</v>
+        <v>-0.1867188155954616</v>
       </c>
       <c r="D59">
-        <v>0.01661802813355808</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.0316598744712668</v>
+      </c>
+      <c r="E59">
+        <v>0.02557021020974948</v>
+      </c>
+      <c r="F59">
+        <v>0.02238684888285458</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.3111570297569549</v>
+        <v>-0.2830573726853078</v>
       </c>
       <c r="C60">
-        <v>0.09021169354949998</v>
+        <v>0.09849422597379164</v>
       </c>
       <c r="D60">
-        <v>0.03117456971333899</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2032505032292017</v>
+      </c>
+      <c r="E60">
+        <v>-0.2730119247209351</v>
+      </c>
+      <c r="F60">
+        <v>-0.1143428007397032</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.0420122188354403</v>
+        <v>-0.04035382825632037</v>
       </c>
       <c r="C61">
-        <v>0.06373679358113568</v>
+        <v>0.06206250747905713</v>
       </c>
       <c r="D61">
-        <v>0.01099298241803198</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04611298581506699</v>
+      </c>
+      <c r="E61">
+        <v>0.0219789794262507</v>
+      </c>
+      <c r="F61">
+        <v>0.08238559731956505</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01637721285818097</v>
+        <v>-0.01508489431021302</v>
       </c>
       <c r="C63">
-        <v>0.03551520086493343</v>
+        <v>0.03251056145387074</v>
       </c>
       <c r="D63">
-        <v>-0.003440519039249505</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02372469410783761</v>
+      </c>
+      <c r="E63">
+        <v>0.03729714417563674</v>
+      </c>
+      <c r="F63">
+        <v>0.0777463038016212</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.05339436519676648</v>
+        <v>-0.0554347130622023</v>
       </c>
       <c r="C64">
-        <v>0.03679707024029968</v>
+        <v>0.05397193559851418</v>
       </c>
       <c r="D64">
-        <v>-0.01097295234745194</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006517451098076992</v>
+      </c>
+      <c r="E64">
+        <v>0.01978788755296254</v>
+      </c>
+      <c r="F64">
+        <v>0.08588771119379383</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.09701106582373227</v>
+        <v>-0.06900225314310859</v>
       </c>
       <c r="C65">
-        <v>0.02607281360838969</v>
+        <v>0.03364630329948411</v>
       </c>
       <c r="D65">
-        <v>0.03974660965132992</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.0877524245407304</v>
+      </c>
+      <c r="E65">
+        <v>0.03045519152504366</v>
+      </c>
+      <c r="F65">
+        <v>0.01891481067587943</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.06551526501084193</v>
+        <v>-0.05147870443900129</v>
       </c>
       <c r="C66">
-        <v>0.1018305685959666</v>
+        <v>0.09080561650008019</v>
       </c>
       <c r="D66">
-        <v>0.032200470462999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08041326325023766</v>
+      </c>
+      <c r="E66">
+        <v>0.02095166196919982</v>
+      </c>
+      <c r="F66">
+        <v>0.09403661213012951</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05131090164322732</v>
+        <v>-0.04636576877305709</v>
       </c>
       <c r="C67">
-        <v>0.03269913768635203</v>
+        <v>0.03064567213378941</v>
       </c>
       <c r="D67">
-        <v>-0.008556258369123331</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01198288370921968</v>
+      </c>
+      <c r="E67">
+        <v>0.01589548636746388</v>
+      </c>
+      <c r="F67">
+        <v>0.05428647404997611</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1094916733830919</v>
+        <v>-0.1513580756492595</v>
       </c>
       <c r="C68">
-        <v>-0.2916488870867091</v>
+        <v>-0.2521418699917159</v>
       </c>
       <c r="D68">
-        <v>-0.002624517080793838</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01744985425107583</v>
+      </c>
+      <c r="E68">
+        <v>0.04222906200635383</v>
+      </c>
+      <c r="F68">
+        <v>0.01876578767969501</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.08709801378839709</v>
+        <v>-0.08661029986413457</v>
       </c>
       <c r="C69">
-        <v>0.06635952709548393</v>
+        <v>0.08636556752835177</v>
       </c>
       <c r="D69">
-        <v>-0.03992524072604743</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01221870782493512</v>
+      </c>
+      <c r="E69">
+        <v>0.0313511451841333</v>
+      </c>
+      <c r="F69">
+        <v>0.09679506999640733</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1089639150432672</v>
+        <v>-0.1434467808316714</v>
       </c>
       <c r="C71">
-        <v>-0.2540213059141352</v>
+        <v>-0.2333174559723252</v>
       </c>
       <c r="D71">
-        <v>0.02509929440912798</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01604566862318725</v>
+      </c>
+      <c r="E71">
+        <v>0.06216511674815838</v>
+      </c>
+      <c r="F71">
+        <v>0.05757092265932574</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.08710265663799124</v>
+        <v>-0.09591449172410758</v>
       </c>
       <c r="C72">
-        <v>0.04839476326435556</v>
+        <v>0.05720106532306992</v>
       </c>
       <c r="D72">
-        <v>-0.008114290510127882</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02072873869949908</v>
+      </c>
+      <c r="E72">
+        <v>0.008790570572192419</v>
+      </c>
+      <c r="F72">
+        <v>0.08090897703338537</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.4426565758133839</v>
+        <v>-0.347462207908518</v>
       </c>
       <c r="C73">
-        <v>0.05789511816017073</v>
+        <v>0.07733389151051644</v>
       </c>
       <c r="D73">
-        <v>0.1411061526342093</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4329223211845836</v>
+      </c>
+      <c r="E73">
+        <v>-0.4832077606998207</v>
+      </c>
+      <c r="F73">
+        <v>-0.2926525537214928</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1144767728309413</v>
+        <v>-0.1107498463918358</v>
       </c>
       <c r="C74">
-        <v>0.1028990742947172</v>
+        <v>0.1000007277732767</v>
       </c>
       <c r="D74">
-        <v>-0.01393245816532032</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.0291290783579702</v>
+      </c>
+      <c r="E74">
+        <v>0.06157372124137205</v>
+      </c>
+      <c r="F74">
+        <v>0.05625470394643555</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.2491516463435385</v>
+        <v>-0.2565689280120355</v>
       </c>
       <c r="C75">
-        <v>0.1032541071490049</v>
+        <v>0.1360908326563581</v>
       </c>
       <c r="D75">
-        <v>-0.06159335995021857</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1281133578488993</v>
+      </c>
+      <c r="E75">
+        <v>0.07397944363466508</v>
+      </c>
+      <c r="F75">
+        <v>0.01656636672440088</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.1159374804340573</v>
+        <v>-0.1281005528465224</v>
       </c>
       <c r="C76">
-        <v>0.08635566954805424</v>
+        <v>0.1021892207937001</v>
       </c>
       <c r="D76">
-        <v>-0.03343714261889381</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0577698091115648</v>
+      </c>
+      <c r="E76">
+        <v>0.06642492486726211</v>
+      </c>
+      <c r="F76">
+        <v>0.07135918736004025</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07776040071572635</v>
+        <v>-0.06208941447161317</v>
       </c>
       <c r="C77">
-        <v>0.05545911595743204</v>
+        <v>0.06905829517192756</v>
       </c>
       <c r="D77">
-        <v>0.05265540145714527</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06480924511368885</v>
+      </c>
+      <c r="E77">
+        <v>0.06728823260584746</v>
+      </c>
+      <c r="F77">
+        <v>0.1182626700766829</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.04790430916030471</v>
+        <v>-0.04374525399242719</v>
       </c>
       <c r="C78">
-        <v>0.04346993809457237</v>
+        <v>0.05527760902079397</v>
       </c>
       <c r="D78">
-        <v>0.01745315351215897</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07191332900149966</v>
+      </c>
+      <c r="E78">
+        <v>0.02119781447664002</v>
+      </c>
+      <c r="F78">
+        <v>0.1040070107967156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.02506334773048876</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03783759410988708</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05953451583092229</v>
+      </c>
+      <c r="E79">
+        <v>0.0527449915261519</v>
+      </c>
+      <c r="F79">
+        <v>0.04308344887837515</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.04732446531026151</v>
+        <v>-0.03463554735446617</v>
       </c>
       <c r="C80">
-        <v>0.05573705668006966</v>
+        <v>0.05513503334220908</v>
       </c>
       <c r="D80">
-        <v>0.03062314572491377</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04668997263331784</v>
+      </c>
+      <c r="E80">
+        <v>0.009970947591959356</v>
+      </c>
+      <c r="F80">
+        <v>0.0364768042415394</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1426029289475927</v>
+        <v>-0.1402634540854055</v>
       </c>
       <c r="C81">
-        <v>0.06615894289522854</v>
+        <v>0.09649386238541664</v>
       </c>
       <c r="D81">
-        <v>-0.03551462533892136</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09576118979164308</v>
+      </c>
+      <c r="E81">
+        <v>0.08172364105323389</v>
+      </c>
+      <c r="F81">
+        <v>0.02165925673675677</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1452645338893062</v>
+        <v>-0.1991545487152993</v>
       </c>
       <c r="C82">
-        <v>0.05151977541937946</v>
+        <v>0.13702059830005</v>
       </c>
       <c r="D82">
-        <v>-0.124951580366412</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2267034245750155</v>
+      </c>
+      <c r="E82">
+        <v>0.02010859427395979</v>
+      </c>
+      <c r="F82">
+        <v>0.0854801258004898</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.03060950002166425</v>
+        <v>-0.02749316238975614</v>
       </c>
       <c r="C83">
-        <v>0.02225927875122919</v>
+        <v>0.04026899155712125</v>
       </c>
       <c r="D83">
-        <v>0.02325978592471703</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03507061312663844</v>
+      </c>
+      <c r="E83">
+        <v>0.008946485475369864</v>
+      </c>
+      <c r="F83">
+        <v>0.04991739574021416</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.2267632930165669</v>
+        <v>-0.2042593634979168</v>
       </c>
       <c r="C85">
-        <v>0.09814590251554613</v>
+        <v>0.1215042950099614</v>
       </c>
       <c r="D85">
-        <v>-0.09993121522898199</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1025424767307365</v>
+      </c>
+      <c r="E85">
+        <v>0.004735256827919906</v>
+      </c>
+      <c r="F85">
+        <v>-0.01749912490802391</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.01213991255431323</v>
+        <v>-0.01218669528405891</v>
       </c>
       <c r="C86">
-        <v>0.03080514880204309</v>
+        <v>0.02976531044259124</v>
       </c>
       <c r="D86">
-        <v>0.03461164692627998</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07098274574368166</v>
+      </c>
+      <c r="E86">
+        <v>0.04222889367115113</v>
+      </c>
+      <c r="F86">
+        <v>0.1368215472025124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.01853225535996744</v>
+        <v>-0.02112040434437718</v>
       </c>
       <c r="C87">
-        <v>0.017457851020934</v>
+        <v>0.02162518285321505</v>
       </c>
       <c r="D87">
-        <v>0.09138522686978366</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0929831434133629</v>
+      </c>
+      <c r="E87">
+        <v>0.08692299579613512</v>
+      </c>
+      <c r="F87">
+        <v>0.09491978694954811</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.1072621006782495</v>
+        <v>-0.09099990173438327</v>
       </c>
       <c r="C88">
-        <v>0.06615012977649959</v>
+        <v>0.0633383749958234</v>
       </c>
       <c r="D88">
-        <v>-0.02291492974947602</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01106152730756782</v>
+      </c>
+      <c r="E88">
+        <v>0.03480620038568537</v>
+      </c>
+      <c r="F88">
+        <v>0.07342629457566519</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.16738542424565</v>
+        <v>-0.2232477319875448</v>
       </c>
       <c r="C89">
-        <v>-0.3818155697618608</v>
+        <v>-0.3796307180956881</v>
       </c>
       <c r="D89">
-        <v>-0.02615523186128106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01354533795828087</v>
+      </c>
+      <c r="E89">
+        <v>0.03783041057534754</v>
+      </c>
+      <c r="F89">
+        <v>0.09577932617208806</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1653045882838177</v>
+        <v>-0.2020913511597195</v>
       </c>
       <c r="C90">
-        <v>-0.3521608375903524</v>
+        <v>-0.3153147800499359</v>
       </c>
       <c r="D90">
-        <v>-0.01421527368723489</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01247857719428023</v>
+      </c>
+      <c r="E90">
+        <v>0.0672035929587964</v>
+      </c>
+      <c r="F90">
+        <v>0.04698953485714497</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1921091771955486</v>
+        <v>-0.1864794994543176</v>
       </c>
       <c r="C91">
-        <v>0.1040499931353989</v>
+        <v>0.1397968863616059</v>
       </c>
       <c r="D91">
-        <v>-0.06090897642610345</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1052289951242656</v>
+      </c>
+      <c r="E91">
+        <v>0.06472191008490662</v>
+      </c>
+      <c r="F91">
+        <v>0.0369429676011265</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1593857306018414</v>
+        <v>-0.1819676573033718</v>
       </c>
       <c r="C92">
-        <v>-0.2986352993628122</v>
+        <v>-0.2811152049079947</v>
       </c>
       <c r="D92">
-        <v>-0.01338283925268667</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.00170901993827785</v>
+      </c>
+      <c r="E92">
+        <v>0.06870795388339336</v>
+      </c>
+      <c r="F92">
+        <v>0.08075812248871654</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1906193633327918</v>
+        <v>-0.2260327511296079</v>
       </c>
       <c r="C93">
-        <v>-0.3429634817951034</v>
+        <v>-0.3188731036102654</v>
       </c>
       <c r="D93">
-        <v>-0.009243370786265142</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.0005595062468015713</v>
+      </c>
+      <c r="E93">
+        <v>0.05138243183798483</v>
+      </c>
+      <c r="F93">
+        <v>0.04375142880988687</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.3245355540819715</v>
+        <v>-0.3420151066113002</v>
       </c>
       <c r="C94">
-        <v>0.1506996507133436</v>
+        <v>0.1879214749259686</v>
       </c>
       <c r="D94">
-        <v>-0.2395732170213265</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4744247362569204</v>
+      </c>
+      <c r="E94">
+        <v>0.1506614433634387</v>
+      </c>
+      <c r="F94">
+        <v>-0.4455130026585246</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.101542504482556</v>
+        <v>-0.08464341364517491</v>
       </c>
       <c r="C95">
-        <v>0.08411686070368279</v>
+        <v>0.06792763567212855</v>
       </c>
       <c r="D95">
-        <v>0.06579788945449415</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1580027618871727</v>
+      </c>
+      <c r="E95">
+        <v>-0.1249288961417953</v>
+      </c>
+      <c r="F95">
+        <v>0.1713100380710281</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1979612965842052</v>
+        <v>-0.1883841822873751</v>
       </c>
       <c r="C98">
-        <v>0.01520567155084057</v>
+        <v>0.04127240748985615</v>
       </c>
       <c r="D98">
-        <v>0.06673020774663413</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1768097199661951</v>
+      </c>
+      <c r="E98">
+        <v>-0.1568057407376935</v>
+      </c>
+      <c r="F98">
+        <v>-0.04441792159521887</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.009593555362758644</v>
+        <v>-0.006008602256985196</v>
       </c>
       <c r="C101">
-        <v>0.02713408066765791</v>
+        <v>0.02681391454859587</v>
       </c>
       <c r="D101">
-        <v>-0.01655827594526534</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02142311977120196</v>
+      </c>
+      <c r="E101">
+        <v>0.02936326257306754</v>
+      </c>
+      <c r="F101">
+        <v>0.089195592061126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>0.1239151195344659</v>
+        <v>-0.1243196944399068</v>
       </c>
       <c r="C102">
-        <v>0.06865140342379031</v>
+        <v>0.09996391671640714</v>
       </c>
       <c r="D102">
-        <v>-0.03559564921030779</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05041912096535064</v>
+      </c>
+      <c r="E102">
+        <v>-0.007749658452019278</v>
+      </c>
+      <c r="F102">
+        <v>0.04012994285097234</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
